--- a/data/trans_camb/P1803_2016_2023-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1803_2016_2023-Edad-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.3881640858132696</v>
+        <v>0.3881640858132702</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.2110294328492586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3111334872197488</v>
+        <v>0.3111334872197481</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.789995054947204</v>
+        <v>-3.312280230723939</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.392561569297703</v>
+        <v>-3.203043090042315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.370290003619927</v>
+        <v>-2.416226108226756</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.362946437874064</v>
+        <v>5.197636509240231</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.398634346127019</v>
+        <v>4.657423609654261</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.301495693529795</v>
+        <v>3.404476946125388</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.07407403693379874</v>
+        <v>0.07407403693379888</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.04383708994458162</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.06181524517429254</v>
+        <v>0.0618152451742924</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6069860313833262</v>
+        <v>-0.5217664541506386</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5758661576187827</v>
+        <v>-0.5554939958071375</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4012981334915796</v>
+        <v>-0.399746241924566</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.401358311047708</v>
+        <v>1.321880471319162</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.312768252755705</v>
+        <v>1.337076572988659</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7414063674673352</v>
+        <v>0.8737517277679091</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>2.919814923880022</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.584452728911364</v>
+        <v>2.584452728911366</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>2.811030626474599</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.274637480237037</v>
+        <v>-0.7503414843584179</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8192508925020217</v>
+        <v>-0.9899803882190805</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1998154743905571</v>
+        <v>0.3396240830486243</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.691999435965773</v>
+        <v>6.375802847885868</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.23868295389121</v>
+        <v>6.35963735735047</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.411057283119018</v>
+        <v>5.277167953998728</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>0.6487625953868521</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.362862803396196</v>
+        <v>0.3628628033961962</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.4862636587635778</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09642970547977855</v>
+        <v>-0.1928918655104286</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.09473017665189554</v>
+        <v>-0.1155635497590866</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.02435252579876644</v>
+        <v>0.05027793900247695</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.986482532971692</v>
+        <v>1.857024704032298</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.140698742256946</v>
+        <v>1.101713123975086</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.154535850973127</v>
+        <v>1.16383333799084</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>5.127456769572775</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.484093066710779</v>
+        <v>5.484093066710778</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>5.300840910970551</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.093227186823235</v>
+        <v>2.261952245102024</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.95938066949875</v>
+        <v>2.830985577029257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.242806943649922</v>
+        <v>3.248840453569277</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.449727981411518</v>
+        <v>8.672551079137891</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.136480198869728</v>
+        <v>7.988080287173234</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.486504822075335</v>
+        <v>7.456988028567324</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2489076297991186</v>
+        <v>0.2883068082000359</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.5032541218836686</v>
+        <v>0.4678931183199671</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5254996727169242</v>
+        <v>0.5218097186253929</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.823913893657928</v>
+        <v>1.82999319150255</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.545362033909855</v>
+        <v>2.386961289244734</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.710548900290554</v>
+        <v>1.739862541858678</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +888,7 @@
         <v>6.065040310227207</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.835954702189774</v>
+        <v>5.835954702189775</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.658930804002011</v>
+        <v>2.700864550271369</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.353432474834065</v>
+        <v>3.437741801254567</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.881376956638327</v>
+        <v>3.804124891485731</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.623710462579769</v>
+        <v>8.741002133684722</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.557272996359254</v>
+        <v>8.562064361904168</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.725350862342061</v>
+        <v>7.886682927278529</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3945810511170711</v>
+        <v>0.4157870916932378</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4620535537584078</v>
+        <v>0.4682517744949345</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6406541946125616</v>
+        <v>0.6342773924784095</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.405894814437082</v>
+        <v>2.461928781119337</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.163023282839574</v>
+        <v>2.03701897568875</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.894650893965541</v>
+        <v>1.935978870712401</v>
       </c>
     </row>
     <row r="28">
@@ -991,7 +991,7 @@
         <v>2.881167298034071</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>6.779290240202938</v>
+        <v>6.779290240202944</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>4.810534199561312</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0217217813516893</v>
+        <v>0.147225816031938</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.708875534143467</v>
+        <v>3.307486668155048</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.730836351710354</v>
+        <v>2.650865852649869</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.716973071628998</v>
+        <v>5.867085519268192</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.784685179867203</v>
+        <v>9.929116820376102</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.796514287996152</v>
+        <v>6.878393285871327</v>
       </c>
     </row>
     <row r="31">
@@ -1042,7 +1042,7 @@
         <v>0.6177091883581383</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1.077525297815612</v>
+        <v>1.077525297815613</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.8756441656790038</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.0003050997705976847</v>
+        <v>-0.01485516333359136</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.467032190122994</v>
+        <v>0.382510558625709</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.413505458980685</v>
+        <v>0.3866379857297754</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.81850602894928</v>
+        <v>1.904486787763691</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.256955940235514</v>
+        <v>2.231438407074949</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.658290671641934</v>
+        <v>1.56859446339301</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>4.333806020987862</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>3.94649376322693</v>
+        <v>3.946493763226929</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>4.076091830097559</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.966143015199818</v>
+        <v>1.643100781606476</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.4296458075164435</v>
+        <v>0.1192001863896761</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.613913796675941</v>
+        <v>1.837579667234471</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.012603624916834</v>
+        <v>6.828862933714593</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.410678159277016</v>
+        <v>7.077281136435773</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.29453977760728</v>
+        <v>6.339395913458826</v>
       </c>
     </row>
     <row r="37">
@@ -1148,7 +1148,7 @@
         <v>2.11042468030369</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.5662867011162498</v>
+        <v>0.5662867011162496</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.8744719965025027</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.4108818185985199</v>
+        <v>0.4495896870020798</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.0421943323825968</v>
+        <v>0.009215947037937055</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2432889769543842</v>
+        <v>0.2994203414756326</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>7.329074301145709</v>
+        <v>7.022784407490243</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.566578331437812</v>
+        <v>1.480052476453055</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.781353002469198</v>
+        <v>1.821724099152973</v>
       </c>
     </row>
     <row r="40">
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.5884019194346289</v>
+        <v>0.5884019194346283</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>2.931255191095618</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.981481661907642</v>
+        <v>1.981481661907641</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.879271237170506</v>
+        <v>-1.813738481165923</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.1379882549131276</v>
+        <v>0.04651783397463727</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.07095943243784684</v>
+        <v>-0.09317073043872402</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.19972563352076</v>
+        <v>3.031754923151963</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.287066522675782</v>
+        <v>5.390671483702286</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.783375644211534</v>
+        <v>3.806772712687702</v>
       </c>
     </row>
     <row r="43">
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>0.2262712934878016</v>
+        <v>0.2262712934878013</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>0.7806274198897664</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.5998162817446326</v>
+        <v>0.5998162817446324</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5463074366639649</v>
+        <v>-0.5349279312325322</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.05169522626894997</v>
+        <v>-0.002043748487252302</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.04846359321645714</v>
+        <v>-0.03683226231885089</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.592895437491122</v>
+        <v>2.002847868428185</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.525793069995928</v>
+        <v>2.477150613836147</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.684432907627711</v>
+        <v>1.678106478382237</v>
       </c>
     </row>
     <row r="46">
@@ -1312,7 +1312,7 @@
         <v>4.410717880700889</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3.922622607525953</v>
+        <v>3.922622607525954</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2.137375602634285</v>
+        <v>2.104097243457955</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>3.298604024912152</v>
+        <v>3.27650990181865</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3.067880347743891</v>
+        <v>3.153061508637213</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.648069079021865</v>
+        <v>4.639172091107229</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>5.609400049579627</v>
+        <v>5.603318999105529</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.706685891571087</v>
+        <v>4.737689520770012</v>
       </c>
     </row>
     <row r="49">
@@ -1363,7 +1363,7 @@
         <v>0.7988480766564364</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.7749934766931744</v>
+        <v>0.7749934766931746</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.4143030583040843</v>
+        <v>0.4271183737539399</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.5360252348196279</v>
+        <v>0.5256683051156998</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.5515410422699335</v>
+        <v>0.5772116792352543</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.142083819829439</v>
+        <v>1.136395343983243</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.159053118014389</v>
+        <v>1.118245146584259</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.004734801349557</v>
+        <v>1.023221971612105</v>
       </c>
     </row>
     <row r="52">
